--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/21_Bursa_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/21_Bursa_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{873F9633-71B1-444D-93E5-D7A23B36CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{13BC527E-5C32-4EDC-A485-CD301C31A24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{AA3257CC-BC02-4BD2-8055-2C5215E6095A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="664" xr2:uid="{F76E0BE5-0B80-42D9-B723-51E2CE55795B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="105" r:id="rId1"/>
@@ -954,13 +954,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{20C61423-F6FB-4EC1-ABE8-C7399A973498}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{79680E8D-2A45-4475-B46C-ABAA37694C39}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{806A47D3-9806-4F6B-B241-CD57B7687416}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{B5B17F91-75ED-4FFE-83B1-E64099E8011B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{6D59E91F-6095-4E72-88BD-D66BEA0F1511}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{D7B6BB62-6875-475E-8677-54FCAAB71B19}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{AE64B31C-6EC1-4ED3-B187-C621A56D31C9}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9D9723F7-045C-46EB-8125-0B3D4A52D90C}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{ACFD170D-AEFB-4B4E-A1C9-0F76C75E6D94}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{63AC0A9E-EE30-4A92-A319-7CD0433FC029}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{34A80B5F-965A-488C-8C43-7A4E292F3CBD}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{B8C0A170-6B22-4EC4-833F-A39235261675}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{CF5E3E02-8860-46E6-8BF1-24A2DB864077}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D9B928E7-C6F7-4265-9005-E0DA85C396C6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1330,7 +1330,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECBBAF53-8574-4240-991D-3F8C331D07F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF88F87-1CB6-48A4-8C19-3D882431ACFA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2637,18 +2637,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22AA6F0E-BA8C-4EC8-A3CC-BDC630F9641B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE7ED683-0320-4FF2-81A1-CFE2FBBDE052}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{89136108-09C0-452D-A9EC-9D4FF99143A2}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5CFE9622-E9E4-4158-98AA-3E97E690A5D7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C01B442B-0B12-4331-BDF9-65114A3A7523}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{16E1A092-5546-4832-BC61-08B2B0F2EBA2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0DFF694B-F01B-4335-92DA-9873A28C67F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{99FC26E7-B460-4BA7-A7DA-18B98514131C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{082E4582-9EF1-4E75-B516-6293A87AB5F9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6FD54DA3-DCD0-4273-B686-A09A169F5E74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82F6790C-187F-4F25-A609-1F738F1241E8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{910BA4B1-F2F5-4735-B150-2CBAFA7942AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B94D834D-A542-466F-8A91-3DE0395B9CDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EA27C77-DAF6-48F1-AF13-47A6C6C8749B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64E6B805-FFCC-42C6-AAE0-79871B5ED06E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F6941925-70CD-42F2-B51F-54B629E3E2C6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6A56CB0B-35FF-4A8B-AC8B-ED01E37CEF81}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A10530EC-F4D1-4B45-90BC-31A78C4A90AA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E7BD8E00-B8FA-4233-B011-780794301769}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CBFE99D3-C072-4A3A-AD39-33A934F537D8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{981A1751-F39F-4E71-BCF9-86093A0F0246}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E71AE82A-2B3E-4CB6-B509-E07E85CE562C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2BD55486-52D6-411F-9692-062AF650D479}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0DC767FD-0520-4A99-8366-C29EA48B71DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2661,7 +2661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B7BD40E-94A4-4B5E-9B3E-49FB0C3F16E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32C4432-849F-4D3B-8A35-F0686FC1A796}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -3947,18 +3947,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{432A497E-A642-4318-8420-EC338C17C5E2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{742C3252-EFD0-4A92-9442-876BEB165154}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{275DC12F-82DB-4296-983F-B42F3ACF8A91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F787D9E7-64D5-41AB-8D51-CBAD0D7361CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A22D1A27-C332-4EAC-A496-4375B336852B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98812E52-75FD-4A29-90C0-EBACACDBA28B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4FE3110-19A5-444D-BC21-688F6AB8F61F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74B11C2B-E995-43EA-96B0-C8559CD20DC1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFE8A3D3-D9EC-4484-BF5B-E423347F6A12}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B028B883-2BED-4731-8D3D-09ABE215A6B4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B940EC16-DCB6-48B0-B986-7E12B92C11B8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{56DDDA70-FA15-471D-A8F5-73E1BCD44EE6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F83CEF63-F209-4FF2-A094-438040743FC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2DF6F483-CDA2-4B11-ABCE-88E527D2A09E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F400232F-9DB2-46BB-94FC-FD5DEC8DBB58}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6F724F8E-C039-4909-B365-43A4096D2C72}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6E2DF1F6-8BDB-4E6C-9DB3-0E11879C59E4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D1796EF8-8722-4AD6-812A-FDE55BCEE56F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BECCB4D2-810C-45EC-899A-675022D17FB8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3B5FC26A-08FD-4453-B111-73AE431500FB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{280A5939-4E7F-4254-864B-23F1F63321FE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2C6187CB-2F0D-4DCD-B374-FC5488DA8465}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1313E847-BA31-4C1E-9DE0-B0408A85C500}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{094B5462-5AE4-450D-BC5C-8A012F2B2FF3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3971,7 +3971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960A5E1F-7956-42A3-A926-5AC90DD92950}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D29A0C2-CD7E-4730-AF1E-C91980202F66}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -5259,18 +5259,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3F10633F-31DC-4FB2-BDEA-6A048E19CAE1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65234E27-C915-46C0-BE67-8D6B60FD408F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C98B49DA-14CA-4B21-B00D-180D3AB9F6C3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BF91314-1545-4A16-8A36-6A87D0CED953}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C29CB4B-621F-49F7-A8D0-E46B76D9B19E}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B9FE0930-AA7F-4EF5-B313-E9B9B7C2078B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18084947-317C-42EA-B989-DBA07CA6BDC7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C0508A86-5F71-4957-BFC2-1D6E25252DDA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C0049CE3-7CD8-47D5-B275-355C88AA413E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CC458580-EEDB-491E-91AD-FA2F0B94F25D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{45686E7A-E138-493B-9929-B884FFEC2FD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1C490DEF-51E5-42B6-8C27-EB836C47FC26}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F785569A-92A4-4FA0-9EC0-139696007A3D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02EB183A-2CC4-4B9D-97A3-30F47F256DC0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8D88484-DF6A-445D-976F-66E2AB169CBA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A471B8A-8338-4112-8790-B407AB1534C1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0380F73B-1ADE-4E65-B302-009D30888C22}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1C666AB2-0535-4BF2-8957-D78655FFAF9C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{97DB52A4-039A-4A8A-ACD6-9DB8002BC7D6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{18754F52-8772-43D9-A5B3-17C98E2B930F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B7010E2-F80E-4648-AEDA-C6D2F060E168}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{9748CB4D-0DF1-4521-9F96-D5C95F4C3D42}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{044C9781-552B-4807-8217-12A5E97D32BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB74BD4E-A1A3-433E-A84D-E9CA10E294DC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5283,7 +5283,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20C45BDC-BB1B-4DFB-A9D5-7FF4FCF9DF75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D409C4BA-1E8F-4F40-8BA5-B6FD8677BD1A}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6561,18 +6561,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74B18E6F-71C7-4235-8A3D-49FB65252C27}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{56D91086-F45D-4CAB-80D1-2536B8DC77C0}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{994F8E31-A95E-4701-845D-ACD691B939EC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{58485545-96C3-4859-AA97-A8E54C1A73D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A3ABA60-FD6F-485E-99FC-130AB60A02B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2151CD03-B1A6-408D-9B6A-A87C92F7BD8A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D310162-A91B-4A46-A7CA-F7E58A68642B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA9D6DF3-D488-49C4-823C-F0708D8D0334}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{808960CB-1DC9-4BB3-9F5E-FA9D2693843F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A60B5C16-D757-4EDC-B1AA-C0EC31BE3B85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3C04DCC6-3A74-4FB7-AC11-0D209F1E8F56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{326D3946-4337-489A-9E31-BCBD49D4A499}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{80B1CE6C-248C-4C62-BB6A-43B4209BA10C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1928A325-B0C5-4DD1-BBE4-B34EE3CFFD52}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9203997A-D559-4BEC-941A-DD5C6FE05445}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{46783A76-FB7C-4645-892F-5E8EF014D8EF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9320DD20-FCFE-4EA8-9096-C267DF290C70}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{AC2B7EB5-F72B-40D3-98E5-E6024B95937F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9872F49-AF41-40D4-9D54-1292AFA491A3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C4B78EBE-4B79-4F27-81B5-81A0FB8A2431}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{38AFB626-980D-40F3-AA0A-574E514DA044}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E7AB9FC6-481E-4912-8654-2745999307F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECD9DAC6-5D05-4147-A642-07D2763B5267}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{73395071-CF39-40FB-A81C-4EF7D4EEC9F2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6585,7 +6585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40DAC787-C2F3-4681-B9D9-008AE2FC25B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7397E9-F7EC-4772-80F1-C94FF83C90C2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7894,18 +7894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{25251129-08A1-496F-8709-7616C22A0609}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEFBA78B-BA93-4A54-842D-F00490471CBE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{081882F6-6DE4-4BB4-8594-6B02CA7D4E72}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A2E7F54D-7502-453D-A04F-EB1FE50A231D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9290C4C-8171-47BB-9532-957C3B4C7C7C}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{44F4EA5F-D12F-4041-BA7B-ADEEC7EBDED7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DA993572-9D80-430A-95EE-302AF834E4AF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8CAD8CDC-6FC4-46D5-9EC6-7C58C90AC80F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{658EA768-4CC2-4C7C-8245-81B2EEA808A4}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8F527D93-1AFD-42AD-AE7C-FCBE3A5A852F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DD95BCE-E7BA-40C8-B95C-B1DD10285B26}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{836EBDC4-EB46-4491-8ED2-0EE398FBE158}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{00070B45-4559-4D59-B983-B2F0BCF7A37B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EECC992-30BF-44BE-9A08-F13F25AB5073}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{03732174-762C-4128-8897-A2FEF6FB574C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5D1E30A2-2979-4571-A58C-292C0BEFA7BD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E01F99AB-D398-4B82-974E-59CAFBE0728D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5436BBAA-FB1D-4D35-9F56-29A33BB10183}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{25E064D8-F834-463C-9019-F4DD04F220BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EF9B56BD-4577-4120-BB7F-745FE59DB571}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6099D294-4DE4-46E2-A566-C972143F29A8}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6AA54B9C-4CC0-40D3-8F55-4232090D5CA4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48AE393E-011A-444F-95C2-18E9DE52EC3D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{67FC1F61-E86F-4E6F-9A95-E7B37339EC3B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7918,7 +7918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9668A88-38E4-486E-8B6E-44A61D3071E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61B95C1-BD20-402C-B166-4E7F63A44ED0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9227,18 +9227,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0090B264-F50D-413C-9EFD-B09FD888D909}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3379F773-EB26-4570-B83D-B2719FF093AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E7668E7C-1861-45EA-92C0-52594DDA8A48}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E1EFDBB9-FC85-415F-B383-755617902EA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E5F4A6C5-608D-4B5B-83DB-D644CC3C682A}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{52688964-CDA5-4411-84E3-9726ADDBCED7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{37307224-CC69-42F0-A2AE-A2DB1B8A4610}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D2C5CBB2-F970-43FA-B5C3-7476A4ABAC36}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD656D9F-0589-499A-BB2C-56A19D835E62}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{85196214-C611-40C7-B8C8-EEB193BF3604}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1C195FD-C15A-491F-9687-AE97C11624EB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{300F1AD6-266B-4608-8382-ECFDC3EC3234}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{888C2CF4-95F6-4B53-AFE3-37E8CDC0BF03}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8E848602-7B9E-4C06-892F-BD11BFF9864A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F2D9BEC9-4C3A-42C8-BEBA-6355DDB089FD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D459596E-44E5-4BC1-901E-C0F20C185754}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{525CD0B0-3E33-44ED-AC44-4FB4BA36E6B9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B2BF8944-E0C4-402F-A1F1-2B23E880E99D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2F3C7CF-D2C1-4B22-874F-5D9DF2C715FE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B1D564C7-F025-4D52-B669-ECC625C5BF7B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35DA0C69-17E9-4318-AA46-096CBDE91DA6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A578EDF9-C4FC-4815-944A-5841FD915B21}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AC625760-197F-474B-B395-7B072B84961E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1B7507A3-D745-49B9-80CB-EE220D60D060}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9251,7 +9251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D10E9F-277D-4D66-8CEF-47AE418DBE83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E02F65-0284-4302-BEB1-7FF7D8218320}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10560,18 +10560,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AB5A50C-E79F-4994-8F76-BAF6D5DE196D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A65FCFCD-EE49-4D5F-A06E-4EFB5935C735}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D979562-8F9F-4F14-B12B-2F9079A4F2E0}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AB111AAD-6AC2-4F37-9483-A842B7C586FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5600EA92-044B-42B9-A192-2B3784331BAE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{106D84A3-A651-4EC5-9E3C-2EBDF612B091}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DD84E8AD-072A-496E-8215-0060E613B074}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63667261-F4DE-407F-B074-5F99378E5B28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FE5E4452-71AE-4FD6-9511-F19878AA3675}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E47F9E04-768A-469F-84D9-0F4726AA71E1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{96B1CC3A-6839-427C-9E9C-C4DA74A0366F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{414F8D3B-35CA-4301-B86E-C3EF7E3C2C81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{32769F6E-6EF8-458D-8A47-67A1662E29E6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57F3AA34-F210-43F6-B774-EAC03D3485BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A4269376-F357-44AB-BDD2-2E24D826C16A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CFC05D61-27CE-4546-AA62-66A45A7394E6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0FF9E829-9D99-42DC-9012-AD16100E8443}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DD39D8BE-EB52-4295-8F31-901892B43B77}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9BB86392-C13A-4A21-8D1D-5E72EEE01848}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D20457DD-621B-4899-92F0-59C524570F95}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB5A5A57-94BD-4EB4-AADB-849CAA306835}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F332258F-8E7E-468C-8FE7-0072D3216FAF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E83D85A-AD17-4E5D-858E-B1405CE3960E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{186572C3-15E2-472E-A480-F8912307D520}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10584,7 +10584,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC44E2F-CBAF-41DC-98DB-CF6683D46D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{864B2563-A2E3-48EB-AAD1-50D7055523E7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11889,18 +11889,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{687D6F07-5AAD-4249-A8A0-44E074E07E85}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AFCED45C-610E-4162-9340-F4DDB34E41A3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B68405F7-C1B7-43EF-A92E-C7C1FA653F9A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CD7601F0-2ACF-4D5F-AA05-4BBE74D7C826}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A8E93D7E-8620-4D31-A34B-136222ED8D47}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A576E9E-6479-4A78-A08D-2640463BAF81}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3B099F21-0EE3-4E15-A45D-71F98C91C29E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB585989-7E8D-4258-9C63-68C24C65E766}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FC0F5F17-ABE4-4813-B694-72E69E170AF6}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{426317DE-AD27-49DF-BC8E-EE5AF3B9B8F5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB3A8D13-4D45-4C1D-B55F-793E626F8EE8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{57FA757A-AE1E-41D4-A558-519B9BE26305}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99E7F1F9-B53A-459E-91C7-7D8D0F599284}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5C2762B-18D9-43DF-99AB-B72466106C97}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FCA1795C-F686-4076-AEDD-48C1D70C901F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B9AA9C60-D315-4AAC-A7DB-295C83D3F252}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{44D31613-ADA4-42DF-A3E1-EEC82EF731D9}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{548B727C-50CE-4045-BA30-EDC135480DAF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ADE1EC4-2B23-4D12-9417-4DFC94CBB46C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7B6F5504-F9E8-45BB-92E1-AD1B4BBA76A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B60EA6CE-CC81-4D59-BA99-24BA05F8B25D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7CA98059-1870-49A8-88EA-4051E022CC53}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7E832ADF-1EC0-4826-ABDD-145EDF6FE3E9}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F177502B-F775-43E7-BB36-B194208DC026}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11913,7 +11913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48C5B41-B302-460F-ACB7-DDD31EAC8197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D43EBE2-A7F7-4F0F-8434-793DA53EC416}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -13211,18 +13211,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5939D222-97F0-4CCC-AB7F-C7BE9CA5794C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FF81051-A279-44AC-8576-C182174CF720}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0FC97A4A-BB81-4855-B56A-7BD5119084C9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A464E3BA-06FB-4383-9E48-8E98068BCAFE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DE2A24E7-8117-407D-9312-7CEC2FC6F949}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{8407CECC-9225-4D61-A9CB-28853352A79A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B80095B-CEAC-4741-BEB6-7114C9F11FA1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9AA04DE-EB84-4FAF-8E34-3CE230F6FFEC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5FDA8A99-1452-4286-A5AE-2EE2BA194BAA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3536C3A1-84D0-4166-936B-D04C6A2C2CD3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6346843D-E7EA-409C-8C53-BFFC091FCD63}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EA2D9948-D266-4724-8109-B2B24B86E090}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62FBC899-27F4-4386-BA23-FB81D9632BE6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B0BD977-F3F6-40F3-B917-00B3E78FE6F8}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BFDDB103-117D-4505-87E7-4524063A2F6F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{523E81E2-8E23-4471-A06B-28951945F78D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E6238E6E-0332-478F-9963-0344B6972391}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3A694623-CE94-4A3A-8A7C-B01A08EC3F70}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{95ADFEA0-FC51-438F-A5C9-458C97094460}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9EEEA5E0-66C7-4309-8FA6-ADA2D45FF0C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CC74C77C-E1E2-4385-ACEA-D49948181D51}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0D99CAC0-0912-42C7-B607-950CE06312E4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A59DDD6-88A3-4038-8776-8DB3C28734B2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C9F2F1E-1606-4F56-8318-666FDE83B6A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13235,7 +13235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B34D5282-8E89-44F3-B8DA-65CE9BB950E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2908DF20-2C5A-4C60-A507-5F419E251BE7}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -14527,18 +14527,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6E18265-E66C-48E6-8263-3BF9CCF78BFC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{23C4EA19-52BC-4769-8B8F-32FC57203F3A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7655BD8B-9F03-45E2-B030-F752B338383B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27A13EAF-0CBB-4C45-A1C6-B5998DD28D55}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{783CF234-F9D4-4AE5-B346-F8AF24F77990}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{576DFC3D-E7FC-4819-A531-BB53A612F8EA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A5BBF653-1323-4F96-A02B-9E85BA46E659}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{693B2330-8B95-4204-8559-3EAA5449C550}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F22F498B-4D32-466F-B08E-57B0A9FCE9A9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B89CF7CB-8B6B-4595-89AA-EB3560C8AD66}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{984AEC3F-6E15-46A8-9C6F-768E00411432}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{77722711-6206-41B2-9EC4-85A02D605CB8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{600DE108-C2DA-4970-B6C8-E800A63C0DB6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{914072C2-024C-43E0-B09F-5030E09B11DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3739A30F-D075-42EC-AF07-98F139D41256}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B862535-4C5F-4977-B342-3CB9E74C7046}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{43110CB9-EFB3-4C33-B17D-41AE9C8ABE60}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F9D445A3-1AED-4F64-AF7F-8075C95F27F4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DA9D9A6-276D-42ED-ABCF-51ADEA85CBD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7756F259-76A1-438C-8ADE-D06FE1F25620}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD7B02B2-CAFE-48F4-8FB7-3EE26F911F50}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0239A5DA-C474-4FFA-AEDF-482B8C22298C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C50669B7-124B-407B-BA6F-71AA7B1A8D97}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB689E25-57B0-4004-961A-3904DC94A90B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14551,7 +14551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D2962E-167D-4B85-8468-2F5164441CBB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C96CEF-2C6B-4392-9686-5F28DCFC5979}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -15843,18 +15843,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0F07F415-1769-450C-9290-6E597CF51C38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87605A2B-AB10-4A0B-AF41-9B572297A634}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27F42A82-35D5-4240-B209-6F3E154A34A6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{763BDFE5-62C1-4178-9B9F-81524DD92F5A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B86B99BA-5BE2-4660-8246-CC2A27F0DE5D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2CF68079-ACF2-4B19-A06F-A61620DAC54C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD0815E2-32D2-4DBE-AAED-D360EC8CC18F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2EAB6EA-C538-4E68-B9C9-8769E0E5F38D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E04442D1-87A1-4388-BD0D-FEE4D3D08941}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{70840C99-FC31-4DC8-8921-5811EDD02CA9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F13AB5E-B718-44E3-B48D-CC64170FDE8D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DB300B8-B5DA-444E-B926-A1DB255BA983}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0C8E82BF-787E-4868-9F4C-E1CFA75999C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1E38D2FC-D16E-4E75-9559-32B8714DC144}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1AECE723-4550-422F-A8FC-E5EAAF1B37D5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD421505-C22B-4C75-ABF5-FEFA29155FD6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FB82B703-77F1-4147-98D6-B49B60C65A69}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{56CD8E86-70F3-4433-8ECF-EDB453069E4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8DFF1E9F-A7C9-4ADD-8903-498017734EC3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2541608A-DCC0-4A4E-85A1-B4EED39EC992}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{91EE737B-FB4D-4A5A-832E-2F2278AA8DED}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{829A5D97-19B9-454D-9D70-D998A73FAB8E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F3D31208-488D-4845-A453-B2B2F740918D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{268D0CAB-6CFD-4E46-BD9B-5E3191D68DC1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15867,7 +15867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{570B27F5-49F9-400A-9002-641A604204BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0042D848-B175-48D1-BD94-6EAB3B7CBA1B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -17159,18 +17159,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C38CD766-16A0-4BDC-9F81-555E52B50D2E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65BE2C57-05F3-492F-9CC0-9281A5E61592}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{08AE9B62-54F8-4F24-9704-81BA5C550AB1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{66C8F426-5DBD-4016-825A-8A0A34255E1A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C8A874B2-4D5C-47D9-9BE8-6FBA28840B5B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B0FD9144-7548-4352-B481-7909C4B7D000}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1592368B-31FC-49E7-8DB1-41C86899C0DC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7189089-8A3D-4CE5-A8E3-F402C53CBF34}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E8F927F9-8B07-4A41-8158-E7BEFB3D9EB0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{43589AFD-15A1-4B8C-9180-9FF6F5EE657B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF888EF1-2D88-4F7D-926A-5171E0C426FB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A4809FF-1AE8-465E-9FAC-1E06BDDEFEE8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1FE0DEBB-7309-4F09-A2E5-9C7B60833059}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A78A7C44-26A4-4BCF-B3FA-86CB3A5F4E5A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{78E32B3D-11F5-4420-AD45-6F2F25B0DA25}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{11DF35FB-3106-4394-B812-49E8F1D3D8C4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{553951FD-B1D8-4B5B-9157-D5E04B8289B0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{008BAF6C-E866-49C6-B8C9-81F182818210}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6AC5A51F-3FF8-4EB9-BE9B-F53B5D66444E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FA61C923-35EF-4261-8581-FA2EA6B48C34}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AFE2ECB1-AD78-4109-98EB-AEEAF11FB6FE}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7FF7E83D-EBD5-4439-A6BD-FF0080265DA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4CB20254-2951-48EB-AE7C-4267E3AA95F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A8DF68B-539D-4378-8D46-8B4414EC14FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
